--- a/tp1/islas_data.xlsx
+++ b/tp1/islas_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivola\OneDrive\Escritorio\islas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA046D-00FC-4491-9452-534E1E9301F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99A638-805F-45ED-A5EE-7B4A2878AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1640">
   <si>
     <t>Column1</t>
   </si>
@@ -4615,18 +4615,6 @@
     <t>COMOROS</t>
   </si>
   <si>
-    <t>BRUNEI-INDONESIA-MALAYSIA</t>
-  </si>
-  <si>
-    <t>INDONESIA-PAPUA NEW GUINEA</t>
-  </si>
-  <si>
-    <t>REPUBLIC OF IRELAND-UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>ARGENTINA-CHILE</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -4993,25 +4981,25 @@
     <t>384</t>
   </si>
   <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
     <t>ST MARTIN</t>
   </si>
   <si>
-    <t>FRANCE-NETHERLANDS</t>
-  </si>
-  <si>
     <t>TOBAGO</t>
   </si>
   <si>
-    <t>WEST INDIES</t>
+    <t>INDONESIA / PAPUA NEW GUINEA</t>
+  </si>
+  <si>
+    <t>BRUNEI / INDONESIA / MALAYSIA</t>
+  </si>
+  <si>
+    <t>REPUBLIC OF IRELAND / UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>FRANCE / NETHERLANDS</t>
+  </si>
+  <si>
+    <t>ARGENTINA / CHILE</t>
   </si>
 </sst>
 </file>
@@ -5062,13 +5050,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -5383,10 +5370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C56E92-3599-4F43-BCC1-C11FB7B3A481}">
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F377" sqref="F377"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5451,7 +5438,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -5483,7 +5470,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1512</v>
+        <v>1635</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -5506,7 +5493,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1511</v>
+        <v>1636</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -5897,7 +5884,7 @@
         <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>1513</v>
+        <v>1637</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
@@ -6104,7 +6091,7 @@
         <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>1514</v>
+        <v>1639</v>
       </c>
       <c r="F31" t="s">
         <v>127</v>
@@ -7153,7 +7140,7 @@
         <v>296</v>
       </c>
       <c r="B77" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C77" t="s">
         <v>297</v>
@@ -7162,7 +7149,7 @@
         <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F77" t="s">
         <v>299</v>
@@ -7254,7 +7241,7 @@
         <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F81" t="s">
         <v>314</v>
@@ -7306,7 +7293,7 @@
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -7691,7 +7678,7 @@
         <v>385</v>
       </c>
       <c r="E100" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F100" t="s">
         <v>314</v>
@@ -7944,7 +7931,7 @@
         <v>424</v>
       </c>
       <c r="E111" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F111" t="s">
         <v>314</v>
@@ -8036,7 +8023,7 @@
         <v>437</v>
       </c>
       <c r="E115" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F115" t="s">
         <v>314</v>
@@ -8473,7 +8460,7 @@
         <v>500</v>
       </c>
       <c r="E134" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F134" t="s">
         <v>314</v>
@@ -8496,7 +8483,7 @@
         <v>503</v>
       </c>
       <c r="E135" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F135" t="s">
         <v>314</v>
@@ -8519,7 +8506,7 @@
         <v>506</v>
       </c>
       <c r="E136" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F136" t="s">
         <v>314</v>
@@ -8588,7 +8575,7 @@
         <v>515</v>
       </c>
       <c r="E139" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F139" t="s">
         <v>314</v>
@@ -8841,7 +8828,7 @@
         <v>556</v>
       </c>
       <c r="E150" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F150" t="s">
         <v>557</v>
@@ -9255,7 +9242,7 @@
         <v>616</v>
       </c>
       <c r="E168" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F168" t="s">
         <v>314</v>
@@ -9347,7 +9334,7 @@
         <v>628</v>
       </c>
       <c r="E172" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F172" t="s">
         <v>314</v>
@@ -9439,7 +9426,7 @@
         <v>643</v>
       </c>
       <c r="E176" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F176" t="s">
         <v>314</v>
@@ -9545,7 +9532,7 @@
         <v>654</v>
       </c>
       <c r="B181" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C181" t="s">
         <v>658</v>
@@ -9876,7 +9863,7 @@
         <v>707</v>
       </c>
       <c r="E195" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F195" t="s">
         <v>314</v>
@@ -10221,7 +10208,7 @@
         <v>760</v>
       </c>
       <c r="E210" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F210" t="s">
         <v>314</v>
@@ -10336,7 +10323,7 @@
         <v>774</v>
       </c>
       <c r="E215" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F215" t="s">
         <v>299</v>
@@ -10520,7 +10507,7 @@
         <v>802</v>
       </c>
       <c r="E223" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F223" t="s">
         <v>314</v>
@@ -10543,7 +10530,7 @@
         <v>805</v>
       </c>
       <c r="E224" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F224" t="s">
         <v>314</v>
@@ -11049,7 +11036,7 @@
         <v>874</v>
       </c>
       <c r="E246" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F246" t="s">
         <v>299</v>
@@ -11279,7 +11266,7 @@
         <v>903</v>
       </c>
       <c r="E256" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F256" t="s">
         <v>904</v>
@@ -11486,7 +11473,7 @@
         <v>934</v>
       </c>
       <c r="E265" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F265" t="s">
         <v>299</v>
@@ -12636,7 +12623,7 @@
         <v>1086</v>
       </c>
       <c r="E315" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F315" t="s">
         <v>314</v>
@@ -12949,903 +12936,657 @@
         <v>1130</v>
       </c>
       <c r="B329" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
+        <v>1558</v>
+      </c>
       <c r="E329" t="s">
         <v>1470</v>
       </c>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B330" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
+        <v>1559</v>
+      </c>
       <c r="E330" t="s">
         <v>1470</v>
       </c>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B331" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
+        <v>1560</v>
+      </c>
       <c r="E331" t="s">
         <v>1470</v>
       </c>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B332" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="4"/>
+        <v>1561</v>
+      </c>
+      <c r="D332" s="3"/>
       <c r="E332" t="s">
         <v>1470</v>
       </c>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B333" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C333" s="3"/>
-      <c r="D333" s="3"/>
+        <v>1567</v>
+      </c>
       <c r="E333" t="s">
         <v>1470</v>
       </c>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B334" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C334" s="3"/>
-      <c r="D334" s="3"/>
+        <v>1556</v>
+      </c>
       <c r="E334" t="s">
         <v>1470</v>
       </c>
-      <c r="F334" s="3"/>
-      <c r="G334" s="3"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B335" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
+        <v>1568</v>
+      </c>
       <c r="E335" t="s">
         <v>1470</v>
       </c>
-      <c r="F335" s="3"/>
-      <c r="G335" s="3"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B336" t="s">
         <v>1486</v>
       </c>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
       <c r="E336" t="s">
         <v>1470</v>
       </c>
-      <c r="F336" s="3"/>
-      <c r="G336" s="3"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B337" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
+        <v>1573</v>
+      </c>
       <c r="E337" t="s">
         <v>1470</v>
       </c>
-      <c r="F337" s="3"/>
-      <c r="G337" s="3"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B338" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
+        <v>1574</v>
+      </c>
       <c r="E338" t="s">
         <v>1470</v>
       </c>
-      <c r="F338" s="3"/>
-      <c r="G338" s="3"/>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B339" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C339" s="3"/>
-      <c r="D339" s="3"/>
+        <v>1575</v>
+      </c>
       <c r="E339" t="s">
         <v>1470</v>
       </c>
-      <c r="F339" s="3"/>
-      <c r="G339" s="3"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B340" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
+        <v>1578</v>
+      </c>
       <c r="E340" t="s">
         <v>1470</v>
       </c>
-      <c r="F340" s="3"/>
-      <c r="G340" s="3"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B341" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
+        <v>1579</v>
+      </c>
       <c r="E341" t="s">
         <v>1470</v>
       </c>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B342" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
+        <v>1580</v>
+      </c>
       <c r="E342" t="s">
         <v>1470</v>
       </c>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B343" t="s">
         <v>1261</v>
       </c>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
       <c r="E343" t="s">
         <v>1470</v>
       </c>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B344" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
+        <v>1587</v>
+      </c>
       <c r="E344" t="s">
         <v>1470</v>
       </c>
-      <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B345" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
+        <v>1555</v>
+      </c>
       <c r="E345" t="s">
         <v>1470</v>
       </c>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B346" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
+        <v>1588</v>
+      </c>
       <c r="E346" t="s">
         <v>1470</v>
       </c>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B347" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
+        <v>1539</v>
+      </c>
       <c r="E347" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3"/>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
         <v>1557</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
-      <c r="E348" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
-      <c r="E349" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>1561</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
       <c r="E350" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
         <v>1566</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B355" t="s">
         <v>1609</v>
       </c>
-      <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
-      <c r="E351" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B352" t="s">
+      <c r="E355" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B356" t="s">
         <v>1610</v>
       </c>
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
-      <c r="E352" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B353" t="s">
+      <c r="E356" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B357" t="s">
         <v>1611</v>
       </c>
-      <c r="C353" s="3"/>
-      <c r="D353" s="3"/>
-      <c r="E353" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B354" t="s">
+      <c r="E357" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B358" t="s">
         <v>1612</v>
       </c>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B355" t="s">
+      <c r="E358" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B359" t="s">
         <v>1613</v>
       </c>
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B356" t="s">
+      <c r="E359" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B360" t="s">
         <v>1614</v>
       </c>
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
-      <c r="E359" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
       <c r="E360" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B361" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B368" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C368" s="3"/>
-      <c r="D368" s="3"/>
+        <v>1532</v>
+      </c>
       <c r="E368" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="F369" s="3"/>
-      <c r="G369" s="3"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="F370" s="3"/>
-      <c r="G370" s="3"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C371" s="3"/>
-      <c r="D371" s="3"/>
+        <v>1540</v>
+      </c>
       <c r="E371" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="F371" s="3"/>
-      <c r="G371" s="3"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B374" t="s">
         <v>1547</v>
       </c>
-      <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
-      <c r="E372" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F372" s="3"/>
-      <c r="G372" s="3"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C373" s="3"/>
-      <c r="D373" s="3"/>
-      <c r="E373" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
       <c r="E374" t="s">
         <v>1478</v>
       </c>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B375" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C375" s="3"/>
-      <c r="D375" s="3"/>
+        <v>1615</v>
+      </c>
       <c r="E375" t="s">
         <v>1470</v>
       </c>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B376" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C376" s="3"/>
-      <c r="D376" s="3"/>
+        <v>1616</v>
+      </c>
       <c r="E376" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="B377" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C377" s="3"/>
-      <c r="D377" s="3"/>
+        <v>1617</v>
+      </c>
       <c r="E377" t="s">
         <v>1470</v>
       </c>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B378" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
+        <v>1618</v>
+      </c>
       <c r="E378" t="s">
         <v>1482</v>
       </c>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="B379" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
+        <v>1619</v>
+      </c>
       <c r="E379" t="s">
         <v>1470</v>
       </c>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B380" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
         <v>1625</v>
       </c>
-      <c r="C380" s="3"/>
-      <c r="D380" s="3"/>
-      <c r="E380" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C381" s="3"/>
-      <c r="D381" s="3"/>
-      <c r="E381" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
+      <c r="B382" t="s">
         <v>1629</v>
       </c>
-      <c r="B382" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C382" s="3"/>
-      <c r="D382" s="3"/>
       <c r="E382" t="s">
         <v>1482</v>
       </c>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B383" t="s">
         <v>1630</v>
       </c>
-      <c r="B383" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
       <c r="E383" t="s">
         <v>1469</v>
       </c>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B384" t="s">
         <v>1631</v>
       </c>
-      <c r="B384" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C384" s="3"/>
-      <c r="D384" s="3"/>
       <c r="E384" t="s">
         <v>1482</v>
       </c>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
         <v>1632</v>
       </c>
-      <c r="B385" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C385" s="3"/>
-      <c r="D385" s="3"/>
-      <c r="E385" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>1636</v>
-      </c>
       <c r="B386" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
+        <v>1634</v>
+      </c>
       <c r="E386" t="s">
         <v>1488</v>
       </c>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
-      <c r="E387" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
